--- a/Excel_luban/Datas/GMConfig.xlsx
+++ b/Excel_luban/Datas/GMConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GMConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -74,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -194,6 +207,15 @@
   </si>
   <si>
     <t>显示Spine</t>
+  </si>
+  <si>
+    <t>播放视频</t>
+  </si>
+  <si>
+    <t>local playVideo 1001</t>
+  </si>
+  <si>
+    <t>视频id</t>
   </si>
   <si>
     <t>引导</t>
@@ -223,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -426,12 +448,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1294,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
@@ -1668,23 +1690,23 @@
       <c r="B13" s="6">
         <v>1008</v>
       </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="2:7">
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="2:7">
       <c r="B14" s="6">
         <v>1009</v>
       </c>
@@ -1692,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>44</v>
@@ -1700,11 +1722,11 @@
       <c r="F14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" customHeight="1" spans="2:7">
+    <row r="15" s="4" customFormat="1" customHeight="1" spans="2:7">
       <c r="B15" s="6">
         <v>1010</v>
       </c>
@@ -1712,13 +1734,33 @@
         <v>2</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B16" s="6">
+        <v>1011</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_luban/Datas/GMConfig.xlsx
+++ b/Excel_luban/Datas/GMConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="12975"/>
+    <workbookView windowWidth="26835" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GMConfig" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -240,6 +240,36 @@
   </si>
   <si>
     <t>播放引导_占用</t>
+  </si>
+  <si>
+    <t>小游戏</t>
+  </si>
+  <si>
+    <t>拼图</t>
+  </si>
+  <si>
+    <t>local OpenPuzzle</t>
+  </si>
+  <si>
+    <t>进入拼图小游戏</t>
+  </si>
+  <si>
+    <t>打地鼠</t>
+  </si>
+  <si>
+    <t>local OpenHamster</t>
+  </si>
+  <si>
+    <t>进入打地鼠小游戏</t>
+  </si>
+  <si>
+    <t>斗地主</t>
+  </si>
+  <si>
+    <t>local OpenPoker</t>
+  </si>
+  <si>
+    <t>进入斗地主小游戏</t>
   </si>
 </sst>
 </file>
@@ -459,7 +489,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +866,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,16 +890,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -878,88 +914,97 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -978,11 +1023,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,451 +1364,511 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="11.25" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="39.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="46" style="6" customWidth="1"/>
-    <col min="7" max="7" width="46.875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="11.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="39.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="46" style="9" customWidth="1"/>
+    <col min="7" max="7" width="46.875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13.5" spans="1:29">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="13.5" spans="1:29">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="13.5" spans="1:29">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="13.5" spans="1:29">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="13.5" spans="1:29">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
     </row>
-    <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="6">
+    <row r="6" s="3" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B6" s="3">
         <v>1001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="6">
+    <row r="7" s="3" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B7" s="3">
         <v>1002</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:7">
-      <c r="B8" s="6">
+    <row r="8" s="3" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B8" s="3">
         <v>1003</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B9" s="6">
+    <row r="9" s="4" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B9" s="3">
         <v>1004</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B10" s="6">
+    <row r="10" s="4" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B10" s="3">
         <v>1005</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B11" s="6">
+    <row r="11" s="5" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B11" s="3">
         <v>1006</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B12" s="6">
+    <row r="12" s="5" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B12" s="3">
         <v>1007</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B13" s="6">
+    <row r="13" s="5" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B13" s="3">
         <v>1008</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B14" s="6">
+    <row r="14" s="6" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B14" s="16">
         <v>1009</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B15" s="6">
+    <row r="15" s="7" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B15" s="16">
         <v>1010</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B16" s="6">
+    <row r="16" s="8" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B16" s="16">
         <v>1011</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:7">
+      <c r="B17" s="9">
+        <v>2001</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:7">
+      <c r="B18" s="9">
+        <v>2002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:7">
+      <c r="B19" s="9">
+        <v>2003</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
